--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -345,13 +344,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -381,136 +380,171 @@
           <t>Recall</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>F-measure</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Adventure</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4615384615384615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6666666666666665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Horror</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Sci-Fi</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6666666666666665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.5</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
+      <c r="D9" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Comedy</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Crime</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -519,10 +553,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.5945238095238096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1533333333333333</v>
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4918681318681318</v>
       </c>
     </row>
     <row r="14">
@@ -532,6 +569,228 @@
         </is>
       </c>
       <c r="B14" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TESTIFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>F-measure</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Crime</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6591666666666667</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5452380952380953</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>#########</t>
         </is>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
@@ -796,6 +796,228 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TESTIFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>F-measure</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7272727272727272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Crime</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5008333333333332</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4729797979797979</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FFAB5-1641-E548-8727-E9948684DF29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A220B0-C391-4845-A270-2F1DC1D7DAF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>Sci-Fi</t>
   </si>
   <si>
-    <t>Drama</t>
+    <t>Fantasy</t>
   </si>
   <si>
-    <t>Fantasy</t>
+    <t>Drama</t>
   </si>
   <si>
     <t>Thriller</t>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -667,7 +667,7 @@
         <v>0.6</v>
       </c>
       <c r="P6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q6">
         <v>0.33333333333333331</v>
@@ -681,19 +681,19 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C7">
-        <v>0.4</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
       </c>
       <c r="G7">
         <v>0.33333333333333331</v>
@@ -743,7 +743,7 @@
         <v>0.6</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -755,7 +755,7 @@
         <v>0.28571428571428581</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>0.66666666666666663</v>
@@ -767,7 +767,7 @@
         <v>0.5</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>0.75</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <v>0.75</v>
@@ -1395,7 +1395,7 @@
         <v>0.5</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>0.5</v>
@@ -1419,7 +1419,7 @@
         <v>0.5</v>
       </c>
       <c r="P22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q22">
         <v>0.33333333333333331</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>0.66666666666666663</v>
@@ -1445,7 +1445,7 @@
         <v>0.8</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1457,19 +1457,19 @@
         <v>0.57142857142857151</v>
       </c>
       <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="P23" t="s">
         <v>13</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.5</v>
-      </c>
-      <c r="N23">
-        <v>0.5</v>
-      </c>
-      <c r="P23" t="s">
-        <v>12</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -2009,7 +2009,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L35">
         <v>0.5</v>
@@ -2071,7 +2071,7 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="P36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q36">
         <v>0.33333333333333331</v>
@@ -2097,7 +2097,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>0.5</v>
@@ -2147,7 +2147,7 @@
         <v>0.5</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <v>0.66666666666666663</v>
@@ -2171,7 +2171,7 @@
         <v>0.28571428571428581</v>
       </c>
       <c r="P38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q38">
         <v>0.5</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0.5</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40">
         <v>0.5</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>0.44444444444444442</v>
@@ -2711,7 +2711,7 @@
         <v>0.57142857142857151</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L50">
         <v>0.5714285714285714</v>
@@ -2749,7 +2749,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51">
         <v>0.5</v>
@@ -2773,7 +2773,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q52">
         <v>0.75</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2961,7 +2961,7 @@
         <v>0.4</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55">
         <v>1</v>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5790A4B-11DE-1544-A3D1-73DCD3E915FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284BD0D-EE22-0F4A-93D2-70C8E78221E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="-28340" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -235,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B87" activeCellId="4" sqref="B14:T14 B33:T33 B51:T51 B69:T69 B87:T87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1347,52 +1356,55 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>0.59452380952380957</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>0.45333333333333331</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>0.49186813186813177</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>0.57047619047619047</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>0.47666666666666668</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <v>0.49296703296703293</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="9">
         <v>0.58777777777777773</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="9">
         <v>0.42666666666666658</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="9">
         <v>0.47416040100250623</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="9">
         <v>0.64047619047619053</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="9">
         <v>0.5066666666666666</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="9">
         <v>0.53487179487179481</v>
       </c>
     </row>
@@ -1425,284 +1437,43 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0.625</v>
-      </c>
-      <c r="D18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E18">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I18">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J18">
-        <v>0.61538461538461531</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>0.625</v>
-      </c>
-      <c r="N18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O18">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="S18">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T18">
-        <v>0.61538461538461531</v>
-      </c>
     </row>
     <row r="19" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0.8</v>
-      </c>
-      <c r="D19">
-        <v>0.4</v>
-      </c>
-      <c r="E19">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0.6</v>
-      </c>
-      <c r="J19">
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N19">
-        <v>0.4</v>
-      </c>
-      <c r="O19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0.5</v>
-      </c>
-      <c r="T19">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0.4</v>
-      </c>
-      <c r="E20">
-        <v>0.57142857142857151</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>0.8</v>
-      </c>
-      <c r="I20">
-        <v>0.8</v>
-      </c>
-      <c r="J20">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0.4</v>
-      </c>
-      <c r="O20">
-        <v>0.57142857142857151</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S20">
-        <v>0.8</v>
-      </c>
-      <c r="T20">
-        <v>0.72727272727272718</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>0.75</v>
-      </c>
-      <c r="D21">
-        <v>0.6</v>
-      </c>
-      <c r="E21">
-        <v>0.66666666666666652</v>
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21">
-        <v>0.75</v>
-      </c>
-      <c r="N21">
-        <v>0.6</v>
-      </c>
-      <c r="O21">
-        <v>0.66666666666666652</v>
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1711,872 +1482,682 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0.5</v>
-      </c>
-      <c r="I22">
-        <v>0.5</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O22">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.4</v>
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E23">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I23">
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J23">
-        <v>0.57142857142857151</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="S23">
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T23">
-        <v>0.57142857142857151</v>
+        <v>0.61538461538461531</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
+        <v>0.4</v>
+      </c>
+      <c r="E24">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0.6</v>
       </c>
-      <c r="E24">
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N24">
         <v>0.4</v>
       </c>
-      <c r="J24">
-        <v>0.5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24">
-        <v>0.6</v>
-      </c>
-      <c r="N24">
-        <v>0.6</v>
-      </c>
       <c r="O24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T24">
-        <v>0.57142857142857151</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="Q25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.72727272727272718</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="Q26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O27">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>0.65916666666666668</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D28">
-        <v>0.51666666666666672</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0.5452380952380953</v>
+        <v>0.8</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>0.65380952380952384</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0.53666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="J28">
-        <v>0.57368131868131866</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>0.61416666666666653</v>
+        <v>0.5</v>
       </c>
       <c r="N28">
-        <v>0.4333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="O28">
-        <v>0.48523809523809519</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R28">
-        <v>0.65714285714285714</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0.52666666666666662</v>
+        <v>0.4</v>
       </c>
       <c r="T28">
-        <v>0.55521811521811526</v>
+        <v>0.57142857142857151</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0.75</v>
+      </c>
+      <c r="D29">
+        <v>0.6</v>
+      </c>
+      <c r="E29">
+        <v>0.66666666666666652</v>
       </c>
       <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I29">
+        <v>0.4</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
       </c>
       <c r="L29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>0.6</v>
+      </c>
+      <c r="N29">
+        <v>0.6</v>
+      </c>
+      <c r="O29">
+        <v>0.6</v>
       </c>
       <c r="Q29" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0.4</v>
+      </c>
+      <c r="T29">
+        <v>0.57142857142857151</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.36363636363636359</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H32">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0.61538461538461531</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O32">
-        <v>0.36363636363636359</v>
+        <v>0.8</v>
       </c>
       <c r="Q32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R32">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0.61538461538461531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0.875</v>
-      </c>
-      <c r="D33">
-        <v>0.7</v>
-      </c>
-      <c r="E33">
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>0.875</v>
-      </c>
-      <c r="I33">
-        <v>0.7</v>
-      </c>
-      <c r="J33">
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="L33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N33">
-        <v>0.8</v>
-      </c>
-      <c r="O33">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33">
-        <v>0.875</v>
-      </c>
-      <c r="S33">
-        <v>0.7</v>
-      </c>
-      <c r="T33">
-        <v>0.77777777777777768</v>
+      <c r="B33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.65916666666666668</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.5452380952380953</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.65380952380952384</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.53666666666666663</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.57368131868131866</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.61416666666666653</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.4333333333333334</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0.48523809523809519</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0.52666666666666662</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0.55521811521811526</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D34">
-        <v>0.8</v>
-      </c>
-      <c r="E34">
-        <v>0.72727272727272718</v>
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0.8</v>
-      </c>
-      <c r="O34">
-        <v>0.88888888888888895</v>
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>8</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-      <c r="D35">
-        <v>0.4</v>
-      </c>
-      <c r="E35">
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35">
-        <v>0.75</v>
-      </c>
-      <c r="I35">
-        <v>0.6</v>
-      </c>
-      <c r="J35">
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L35" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>0.5</v>
-      </c>
-      <c r="N35">
-        <v>0.2</v>
-      </c>
-      <c r="O35">
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>9</v>
-      </c>
-      <c r="R35">
-        <v>0.8</v>
-      </c>
-      <c r="S35">
-        <v>0.8</v>
-      </c>
-      <c r="T35">
-        <v>0.80000000000000016</v>
-      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D36">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E36">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0.6</v>
-      </c>
-      <c r="J36">
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="L36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36">
-        <v>0.8</v>
-      </c>
-      <c r="N36">
-        <v>0.8</v>
-      </c>
-      <c r="O36">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S36">
-        <v>0.5</v>
-      </c>
-      <c r="T36">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="37" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0.6</v>
-      </c>
-      <c r="E37">
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>0.5</v>
-      </c>
-      <c r="I37">
-        <v>0.5</v>
-      </c>
-      <c r="J37">
-        <v>0.5</v>
-      </c>
-      <c r="L37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37">
-        <v>0.5</v>
-      </c>
-      <c r="N37">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O37">
-        <v>0.4</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <v>0.4</v>
-      </c>
-      <c r="T37">
-        <v>0.57142857142857151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>0.4</v>
-      </c>
-      <c r="D38">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E38">
-        <v>0.5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I38">
-        <v>0.4</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-      <c r="L38" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38">
-        <v>0.25</v>
-      </c>
-      <c r="N38">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O38">
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R38">
-        <v>0.5</v>
-      </c>
-      <c r="S38">
-        <v>0.2</v>
-      </c>
-      <c r="T38">
-        <v>0.28571428571428581</v>
-      </c>
-    </row>
+    </row>
+    <row r="38" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39">
-        <v>0.5</v>
-      </c>
-      <c r="E39">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39">
-        <v>0.6</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0.74999999999999989</v>
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
       </c>
       <c r="Q39" t="s">
-        <v>13</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -2584,821 +2165,655 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>0.5</v>
-      </c>
-      <c r="N40">
-        <v>0.5</v>
-      </c>
-      <c r="O40">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>0.75</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>0.8571428571428571</v>
+        <v>2</v>
+      </c>
+      <c r="R40" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="Q41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.61538461538461531</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.50083333333333324</v>
+        <v>0.875</v>
       </c>
       <c r="D42">
-        <v>0.46666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E42">
-        <v>0.47297979797979789</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>0.59630952380952373</v>
+        <v>0.875</v>
       </c>
       <c r="I42">
-        <v>0.54666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="J42">
-        <v>0.55598290598290601</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M42">
-        <v>0.45214285714285712</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N42">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="O42">
-        <v>0.41906204906204908</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>0.58297619047619043</v>
+        <v>0.875</v>
       </c>
       <c r="S42">
-        <v>0.52666666666666673</v>
+        <v>0.7</v>
       </c>
       <c r="T42">
-        <v>0.53074481074481072</v>
+        <v>0.77777777777777768</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.72727272727272718</v>
       </c>
       <c r="G43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0.8</v>
+      </c>
+      <c r="O43">
+        <v>0.88888888888888895</v>
       </c>
       <c r="Q43" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.4</v>
+      </c>
+      <c r="E44">
+        <v>0.44444444444444448</v>
       </c>
       <c r="G44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>0.75</v>
+      </c>
+      <c r="I44">
+        <v>0.6</v>
+      </c>
+      <c r="J44">
+        <v>0.66666666666666652</v>
       </c>
       <c r="L44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="M44">
+        <v>0.5</v>
+      </c>
+      <c r="N44">
+        <v>0.2</v>
+      </c>
+      <c r="O44">
+        <v>0.28571428571428581</v>
       </c>
       <c r="Q44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>0.8</v>
+      </c>
+      <c r="S44">
+        <v>0.8</v>
+      </c>
+      <c r="T44">
+        <v>0.80000000000000016</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G45" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.6</v>
+      </c>
+      <c r="J45">
+        <v>0.74999999999999989</v>
       </c>
       <c r="L45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="M45">
+        <v>0.8</v>
+      </c>
+      <c r="N45">
+        <v>0.8</v>
+      </c>
+      <c r="O45">
+        <v>0.80000000000000016</v>
       </c>
       <c r="Q45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R45" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S45">
+        <v>0.5</v>
+      </c>
+      <c r="T45">
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0.6</v>
       </c>
       <c r="E46">
-        <v>0.70588235294117641</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="I46">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="J46">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M46">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="N46">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O46">
-        <v>0.70588235294117641</v>
+        <v>0.4</v>
       </c>
       <c r="Q46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R46">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="T46">
-        <v>0.61538461538461531</v>
+        <v>0.57142857142857151</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>0.55555555555555558</v>
+        <v>0.4</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E47">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>0.875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I47">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J47">
-        <v>0.77777777777777768</v>
+        <v>0.5</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O47">
-        <v>0.66666666666666663</v>
+        <v>0.28571428571428581</v>
       </c>
       <c r="Q47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R47">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="S47">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="T47">
-        <v>0.77777777777777768</v>
+        <v>0.28571428571428581</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
         <v>0.5</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0.80000000000000016</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="L48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N49">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O49">
-        <v>0.57142857142857151</v>
+        <v>0.5</v>
       </c>
       <c r="Q49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R49">
         <v>0.75</v>
       </c>
       <c r="S49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0.66666666666666652</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.57142857142857151</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.57142857142857151</v>
+        <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R50">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51">
-        <v>0.5</v>
-      </c>
-      <c r="I51">
-        <v>0.4</v>
-      </c>
-      <c r="J51">
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="L51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>10</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>0.5</v>
-      </c>
-      <c r="T51">
-        <v>0.66666666666666663</v>
+      <c r="B51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.50083333333333324</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.47297979797979789</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.59630952380952373</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.55598290598290601</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0.45214285714285712</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0.41906204906204908</v>
+      </c>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0.58297619047619043</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0.52666666666666673</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0.53074481074481072</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52">
-        <v>0.6</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0.74999999999999989</v>
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0.5</v>
-      </c>
-      <c r="J52">
-        <v>0.66666666666666663</v>
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52">
-        <v>0.75</v>
-      </c>
-      <c r="S52">
-        <v>0.6</v>
-      </c>
-      <c r="T52">
-        <v>0.66666666666666652</v>
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53">
-        <v>0.6</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="L53" t="s">
-        <v>15</v>
-      </c>
-      <c r="M53">
-        <v>0.5</v>
-      </c>
-      <c r="N53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O53">
-        <v>0.4</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>13</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>15</v>
-      </c>
-      <c r="R54">
-        <v>0.6</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>0.74999999999999989</v>
-      </c>
     </row>
     <row r="55" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0.5</v>
-      </c>
-      <c r="E55">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55">
-        <v>0.25</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0.4</v>
-      </c>
-      <c r="L55" t="s">
-        <v>10</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>0.5</v>
-      </c>
-      <c r="O55">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>14</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>0.61238095238095236</v>
-      </c>
-      <c r="D56">
-        <v>0.53</v>
-      </c>
-      <c r="E56">
-        <v>0.51463585434173675</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56">
-        <v>0.66916666666666669</v>
-      </c>
-      <c r="I56">
-        <v>0.64666666666666672</v>
-      </c>
-      <c r="J56">
-        <v>0.60769841269841274</v>
-      </c>
-      <c r="L56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56">
-        <v>0.58452380952380956</v>
-      </c>
-      <c r="N56">
-        <v>0.48</v>
-      </c>
-      <c r="O56">
-        <v>0.49439775910364148</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>16</v>
-      </c>
-      <c r="R56">
-        <v>0.62130952380952364</v>
-      </c>
-      <c r="S56">
-        <v>0.54666666666666663</v>
-      </c>
-      <c r="T56">
-        <v>0.56431623931623931</v>
-      </c>
-    </row>
+    </row>
+    <row r="56" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>23</v>
@@ -3407,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="s">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -3433,79 +2848,103 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
       </c>
       <c r="L58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="S58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D59">
+        <v>0.6</v>
+      </c>
+      <c r="E59">
+        <v>0.70588235294117641</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J59">
+        <v>0.66666666666666663</v>
       </c>
       <c r="L59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N59">
+        <v>0.6</v>
+      </c>
+      <c r="O59">
+        <v>0.70588235294117641</v>
       </c>
       <c r="Q59" t="s">
-        <v>2</v>
-      </c>
-      <c r="R59" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T59">
+        <v>0.61538461538461531</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -3514,202 +2953,202 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H60">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="I60">
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="J60">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="L60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N60">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>0.66666666666666663</v>
       </c>
       <c r="Q60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R60">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="S60">
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="T60">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777768</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>0.8</v>
+      </c>
+      <c r="I61">
+        <v>0.8</v>
+      </c>
+      <c r="J61">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>0.75</v>
+      </c>
+      <c r="N61">
+        <v>0.5</v>
+      </c>
+      <c r="O61">
         <v>0.6</v>
       </c>
-      <c r="E61">
-        <v>0.70588235294117641</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61">
-        <v>0.875</v>
-      </c>
-      <c r="I61">
-        <v>0.7</v>
-      </c>
-      <c r="J61">
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="L61" t="s">
-        <v>7</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>0.6</v>
-      </c>
-      <c r="O61">
-        <v>0.74999999999999989</v>
-      </c>
       <c r="Q61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R61">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="S61">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0.77777777777777768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D62">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0.4</v>
+      </c>
+      <c r="O62">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="Q62" t="s">
         <v>12</v>
       </c>
-      <c r="H62">
-        <v>0.8</v>
-      </c>
-      <c r="I62">
-        <v>0.8</v>
-      </c>
-      <c r="J62">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="L62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>8</v>
-      </c>
       <c r="R62">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.4</v>
+      </c>
+      <c r="E63">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0.4</v>
+      </c>
+      <c r="J63">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="L63" t="s">
         <v>11</v>
       </c>
-      <c r="C63">
-        <v>0.375</v>
-      </c>
-      <c r="D63">
-        <v>0.6</v>
-      </c>
-      <c r="E63">
-        <v>0.46153846153846151</v>
-      </c>
-      <c r="G63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>12</v>
-      </c>
       <c r="M63">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N63">
         <v>0.8</v>
       </c>
       <c r="O63">
-        <v>0.80000000000000016</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R63">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S63">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T63">
-        <v>0.80000000000000016</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -3739,94 +3178,94 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="L64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M64">
         <v>0.66666666666666663</v>
       </c>
       <c r="N64">
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O64">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S64">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T64">
-        <v>0.44444444444444448</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J65">
-        <v>0.57142857142857151</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S65">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T65">
-        <v>0.57142857142857151</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.33333333333333343</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>15</v>
@@ -3841,67 +3280,67 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="L66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O66">
         <v>0.4</v>
       </c>
-      <c r="O66">
-        <v>0.57142857142857151</v>
-      </c>
       <c r="Q66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="s">
         <v>15</v>
@@ -3919,28 +3358,28 @@
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L68" t="s">
         <v>10</v>
@@ -3955,7 +3394,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="Q68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -3969,132 +3408,87 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69">
-        <v>0.5</v>
-      </c>
-      <c r="D69">
-        <v>0.5</v>
-      </c>
-      <c r="E69">
-        <v>0.5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69">
-        <v>0.25</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0.4</v>
-      </c>
-      <c r="L69" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69">
-        <v>0.25</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0.4</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>14</v>
-      </c>
-      <c r="R69">
-        <v>0.25</v>
-      </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69">
-        <v>0.4</v>
+      <c r="B69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0.61238095238095236</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.51463585434173675</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0.66916666666666669</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0.64666666666666672</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0.60769841269841274</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="9">
+        <v>0.58452380952380956</v>
+      </c>
+      <c r="N69" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="O69" s="9">
+        <v>0.49439775910364148</v>
+      </c>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0.62130952380952364</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0.56431623931623931</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70">
-        <v>0.55654761904761907</v>
-      </c>
-      <c r="D70">
-        <v>0.49</v>
-      </c>
-      <c r="E70">
-        <v>0.48007541478129723</v>
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70">
-        <v>0.66916666666666669</v>
-      </c>
-      <c r="I70">
-        <v>0.64666666666666672</v>
-      </c>
-      <c r="J70">
-        <v>0.60769841269841274</v>
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>16</v>
-      </c>
-      <c r="M70">
-        <v>0.7383333333333334</v>
-      </c>
-      <c r="N70">
-        <v>0.68666666666666676</v>
-      </c>
-      <c r="O70">
-        <v>0.65214285714285725</v>
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>16</v>
-      </c>
-      <c r="R70">
-        <v>0.66916666666666669</v>
-      </c>
-      <c r="S70">
-        <v>0.64666666666666672</v>
-      </c>
-      <c r="T70">
-        <v>0.60769841269841274</v>
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
@@ -4107,58 +3501,685 @@
       <c r="A75" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>2</v>
+      </c>
+      <c r="R76" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S77">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T77">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D78">
+        <v>0.6</v>
+      </c>
+      <c r="E78">
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78">
+        <v>0.875</v>
+      </c>
+      <c r="I78">
+        <v>0.7</v>
+      </c>
+      <c r="J78">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="L78" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0.6</v>
+      </c>
+      <c r="O78">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>7</v>
+      </c>
+      <c r="R78">
+        <v>0.875</v>
+      </c>
+      <c r="S78">
+        <v>0.7</v>
+      </c>
+      <c r="T78">
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E79">
+        <v>0.8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>0.8</v>
+      </c>
+      <c r="I79">
+        <v>0.8</v>
+      </c>
+      <c r="J79">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="L79" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>0.375</v>
+      </c>
+      <c r="D80">
+        <v>0.6</v>
+      </c>
+      <c r="E80">
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80">
+        <v>0.8</v>
+      </c>
+      <c r="N80">
+        <v>0.8</v>
+      </c>
+      <c r="O80">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>12</v>
+      </c>
+      <c r="R80">
+        <v>0.8</v>
+      </c>
+      <c r="S80">
+        <v>0.8</v>
+      </c>
+      <c r="T80">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="I81">
+        <v>0.4</v>
+      </c>
+      <c r="J81">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="L81" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N81">
+        <v>0.4</v>
+      </c>
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+      <c r="S81">
+        <v>0.4</v>
+      </c>
+      <c r="T81">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0.4</v>
+      </c>
+      <c r="J82">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="L82" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>0.5</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>9</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0.4</v>
+      </c>
+      <c r="T82">
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>0.6</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0.4</v>
+      </c>
+      <c r="O83">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>10</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0.5</v>
+      </c>
+      <c r="T83">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L84" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84">
+        <v>0.5</v>
+      </c>
+      <c r="N84">
+        <v>0.5</v>
+      </c>
+      <c r="O84">
+        <v>0.5</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>0.6</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0.5</v>
+      </c>
+      <c r="O85">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86">
+        <v>0.25</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0.4</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86">
+        <v>0.25</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0.4</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86">
+        <v>0.25</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0.55654761904761907</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.48007541478129723</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0.66916666666666669</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0.64666666666666672</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0.60769841269841274</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="9">
+        <v>0.7383333333333334</v>
+      </c>
+      <c r="N87" s="9">
+        <v>0.68666666666666676</v>
+      </c>
+      <c r="O87" s="9">
+        <v>0.65214285714285725</v>
+      </c>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R87" s="9">
+        <v>0.66916666666666669</v>
+      </c>
+      <c r="S87" s="9">
+        <v>0.64666666666666672</v>
+      </c>
+      <c r="T87" s="9">
+        <v>0.60769841269841274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
     </row>
-    <row r="92" spans="1:1" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284BD0D-EE22-0F4A-93D2-70C8E78221E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F113567-8AD2-524C-9BC0-9B6D000A3DD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,6 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B87" activeCellId="4" sqref="B14:T14 B33:T33 B51:T51 B69:T69 B87:T87"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4120,26 +4129,26 @@
       <c r="L87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="10">
         <v>0.7383333333333334</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="10">
         <v>0.68666666666666676</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="10">
         <v>0.65214285714285725</v>
       </c>
       <c r="P87" s="9"/>
       <c r="Q87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87" s="10">
         <v>0.66916666666666669</v>
       </c>
-      <c r="S87" s="9">
+      <c r="S87" s="10">
         <v>0.64666666666666672</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87" s="10">
         <v>0.60769841269841274</v>
       </c>
     </row>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F113567-8AD2-524C-9BC0-9B6D000A3DD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036B487-CAC9-E74E-9D04-8C39919B9123}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="32">
   <si>
     <t>#########</t>
   </si>
@@ -102,12 +102,27 @@
   <si>
     <t>GenreVectorSize : 700</t>
   </si>
+  <si>
+    <t>Indexed : 500</t>
+  </si>
+  <si>
+    <t>Indexed : 700</t>
+  </si>
+  <si>
+    <t>Indexed : 300</t>
+  </si>
+  <si>
+    <t>Indexed : 100</t>
+  </si>
+  <si>
+    <t>Only Index Noun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +147,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,8 +155,52 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -237,11 +296,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -249,10 +388,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,16 +883,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="71" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -772,7 +933,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="17" thickTop="1" thickBot="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="16" thickTop="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -851,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -904,7 +1065,7 @@
         <v>0.61538461538461531</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>7</v>
@@ -955,7 +1116,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>8</v>
@@ -1006,7 +1167,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>11</v>
@@ -1057,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>9</v>
@@ -1108,7 +1269,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>12</v>
@@ -1159,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -1210,7 +1371,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -1261,7 +1422,7 @@
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>14</v>
@@ -1312,8 +1473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:32" ht="26">
+      <c r="A13" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1363,61 +1526,63 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:32" ht="26">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>0.59452380952380957</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>0.45333333333333331</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>0.49186813186813177</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.57047619047619047</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.47666666666666668</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>0.49296703296703293</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>0.58777777777777773</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>0.42666666666666658</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <v>0.47416040100250623</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="7">
         <v>0.64047619047619053</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <v>0.5066666666666666</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="7">
         <v>0.53487179487179481</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>0</v>
@@ -1444,2751 +1609,3272 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16" thickBot="1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="20" spans="1:20" ht="17" thickTop="1" thickBot="1"/>
+    <row r="21" spans="1:20" ht="16" thickTop="1">
+      <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
+    <row r="23" spans="1:20">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="12">
         <v>0.625</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="12">
         <v>0.7142857142857143</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="I23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J23" s="12">
         <v>0.61538461538461531</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="12">
         <v>0.625</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="12">
         <v>0.7142857142857143</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T23">
+      <c r="S23" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T23" s="13">
         <v>0.61538461538461531</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
+    <row r="24" spans="1:20">
+      <c r="A24" s="16"/>
+      <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <v>0.8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="12">
         <v>0.4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="12">
         <v>0.53333333333333333</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
         <v>0.6</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N24">
+      <c r="M24" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N24" s="12">
         <v>0.4</v>
       </c>
-      <c r="O24">
-        <v>0.5</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="O24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
-      </c>
-      <c r="T24">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
+      <c r="R24" s="12">
+        <v>1</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
         <v>0.4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="12">
         <v>0.8</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="12">
         <v>0.8</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="12">
         <v>0.80000000000000016</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
         <v>0.4</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R25">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S25">
+      <c r="R25" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S25" s="12">
         <v>0.8</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="13">
         <v>0.72727272727272718</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
+    <row r="26" spans="1:20">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="12">
         <v>0.75</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="12">
         <v>0.6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>0.66666666666666652</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="12">
         <v>0.75</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="12">
         <v>0.6</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="12">
         <v>0.66666666666666652</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s">
+      <c r="R26" s="12">
+        <v>1</v>
+      </c>
+      <c r="S26" s="12">
+        <v>1</v>
+      </c>
+      <c r="T26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H27">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>0.5</v>
-      </c>
-      <c r="J27">
-        <v>0.5</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="H27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
+      <c r="M27" s="12">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O27">
-        <v>0.5</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="O27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="S27">
-        <v>0.5</v>
-      </c>
-      <c r="T27">
+      <c r="S27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T27" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s">
+    <row r="28" spans="1:20">
+      <c r="A28" s="16"/>
+      <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.8</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
         <v>0.4</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M28">
-        <v>0.5</v>
-      </c>
-      <c r="N28">
-        <v>0.5</v>
-      </c>
-      <c r="O28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="M28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
+      <c r="R28" s="12">
+        <v>1</v>
+      </c>
+      <c r="S28" s="12">
         <v>0.4</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="13">
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s">
+    <row r="29" spans="1:20">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <v>0.75</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="12">
         <v>0.6</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="12">
         <v>0.66666666666666652</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H29">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I29" s="12">
         <v>0.4</v>
       </c>
-      <c r="J29">
-        <v>0.5</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="J29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="12">
         <v>0.6</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="12">
         <v>0.6</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="12">
         <v>0.6</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
+      <c r="R29" s="12">
+        <v>1</v>
+      </c>
+      <c r="S29" s="12">
         <v>0.4</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="13">
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s">
+    <row r="30" spans="1:20">
+      <c r="A30" s="16"/>
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s">
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="16"/>
+      <c r="B32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O32">
+      <c r="M32" s="12">
+        <v>1</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O32" s="12">
         <v>0.8</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="9" t="s">
+      <c r="R32" s="12">
+        <v>1</v>
+      </c>
+      <c r="S32" s="12">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="26">
+      <c r="A33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="14">
         <v>0.65916666666666668</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>0.51666666666666672</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="14">
         <v>0.5452380952380953</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="14">
         <v>0.65380952380952384</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="14">
         <v>0.53666666666666663</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="14">
         <v>0.57368131868131866</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="14">
         <v>0.61416666666666653</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="14">
         <v>0.4333333333333334</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="14">
         <v>0.48523809523809519</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9" t="s">
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="14">
         <v>0.65714285714285714</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="14">
         <v>0.52666666666666662</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="15">
         <v>0.55521811521811526</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="34" spans="1:20" ht="16" thickBot="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23"/>
+      <c r="T34" s="24"/>
+    </row>
+    <row r="35" spans="1:20" ht="16" thickTop="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="1:20" ht="16" thickBot="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="1:20" ht="16" thickTop="1">
+      <c r="A39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40" s="12"/>
+      <c r="L40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
+    <row r="41" spans="1:20">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="12">
         <v>0.4</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="12">
         <v>0.36363636363636359</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="I41">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J41" s="12">
         <v>0.61538461538461531</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="12">
         <v>0.4</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="12">
         <v>0.36363636363636359</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S41">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T41">
+      <c r="S41" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T41" s="13">
         <v>0.61538461538461531</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
+    <row r="42" spans="1:20">
+      <c r="A42" s="16"/>
+      <c r="B42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="12">
         <v>0.875</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="12">
         <v>0.7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="12">
         <v>0.77777777777777768</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="12">
         <v>0.875</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="12">
         <v>0.7</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="12">
         <v>0.77777777777777768</v>
       </c>
-      <c r="L42" t="s">
+      <c r="K42" s="12"/>
+      <c r="L42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="12">
         <v>0.8</v>
       </c>
-      <c r="O42">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="O42" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="12">
         <v>0.875</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="12">
         <v>0.7</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="13">
         <v>0.77777777777777768</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
+    <row r="43" spans="1:20">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C43">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.8</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="12">
         <v>0.72727272727272718</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
+      <c r="M43" s="12">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12">
         <v>0.8</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="12">
         <v>0.88888888888888895</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
+      <c r="R43" s="12">
+        <v>1</v>
+      </c>
+      <c r="S43" s="12">
+        <v>1</v>
+      </c>
+      <c r="T43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="16"/>
+      <c r="B44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
-        <v>0.5</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.4</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="12">
         <v>0.44444444444444448</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="12">
         <v>0.75</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="12">
         <v>0.6</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="12">
         <v>0.66666666666666652</v>
       </c>
-      <c r="L44" t="s">
+      <c r="K44" s="12"/>
+      <c r="L44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M44">
-        <v>0.5</v>
-      </c>
-      <c r="N44">
+      <c r="M44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="12">
         <v>0.2</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="12">
         <v>0.28571428571428581</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="12">
         <v>0.8</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="12">
         <v>0.8</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="13">
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
+    <row r="45" spans="1:20">
+      <c r="A45" s="16"/>
+      <c r="B45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D45">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E45">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="C45" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
+      <c r="I45" s="12">
         <v>0.6</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="L45" t="s">
+      <c r="K45" s="12"/>
+      <c r="L45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="12">
         <v>0.8</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="12">
         <v>0.8</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="12">
         <v>0.80000000000000016</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="S45">
-        <v>0.5</v>
-      </c>
-      <c r="T45">
+      <c r="S45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T45" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
+    <row r="46" spans="1:20">
+      <c r="A46" s="16"/>
+      <c r="B46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H46">
-        <v>0.5</v>
-      </c>
-      <c r="I46">
-        <v>0.5</v>
-      </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="H46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M46">
-        <v>0.5</v>
-      </c>
-      <c r="N46">
+      <c r="M46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="12">
         <v>0.4</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46">
+      <c r="R46" s="12">
+        <v>1</v>
+      </c>
+      <c r="S46" s="12">
         <v>0.4</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="13">
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" t="s">
+    <row r="47" spans="1:20">
+      <c r="A47" s="16"/>
+      <c r="B47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="12">
         <v>0.4</v>
       </c>
-      <c r="D47">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="D47" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H47">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I47">
+      <c r="H47" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I47" s="12">
         <v>0.4</v>
       </c>
-      <c r="J47">
-        <v>0.5</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="J47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="12">
         <v>0.25</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="12">
         <v>0.28571428571428581</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R47">
-        <v>0.5</v>
-      </c>
-      <c r="S47">
+      <c r="R47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="12">
         <v>0.2</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="13">
         <v>0.28571428571428581</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
+    <row r="48" spans="1:20">
+      <c r="A48" s="16"/>
+      <c r="B48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
-        <v>0.5</v>
-      </c>
-      <c r="D48">
-        <v>0.5</v>
-      </c>
-      <c r="E48">
-        <v>0.5</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="C48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="12">
         <v>0.6</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="I48" s="12">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" s="12"/>
+      <c r="L48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0</v>
+      </c>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" t="s">
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>0</v>
+      </c>
+      <c r="T48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="16"/>
+      <c r="B49" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M49">
-        <v>0.5</v>
-      </c>
-      <c r="N49">
-        <v>0.5</v>
-      </c>
-      <c r="O49">
-        <v>0.5</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="M49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="12">
         <v>0.75</v>
       </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="T49">
+      <c r="S49" s="12">
+        <v>1</v>
+      </c>
+      <c r="T49" s="13">
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
+    <row r="50" spans="1:20">
+      <c r="A50" s="16"/>
+      <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="M50" s="12">
+        <v>0</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="9" t="s">
+      <c r="R50" s="12">
+        <v>0</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="26">
+      <c r="A51" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="14">
         <v>0.50083333333333324</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="14">
         <v>0.46666666666666667</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="17">
         <v>0.47297979797979789</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="14">
         <v>0.59630952380952373</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="14">
         <v>0.54666666666666663</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="17">
         <v>0.55598290598290601</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9" t="s">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="14">
         <v>0.45214285714285712</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="14">
         <v>0.41</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="17">
         <v>0.41906204906204908</v>
       </c>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9" t="s">
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="14">
         <v>0.58297619047619043</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="14">
         <v>0.52666666666666673</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="18">
         <v>0.53074481074481072</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="52" spans="1:20" ht="16" thickBot="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="23"/>
+      <c r="T52" s="24"/>
+    </row>
+    <row r="53" spans="1:20" ht="16" thickTop="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="13"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="16"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="13"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="16"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="13"/>
+    </row>
+    <row r="56" spans="1:20" ht="16" thickBot="1">
+      <c r="A56" s="16"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="13"/>
+    </row>
+    <row r="57" spans="1:20" ht="16" thickTop="1">
+      <c r="A57" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="B57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S57" s="10"/>
+      <c r="T57" s="11"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L58" t="s">
+      <c r="K58" s="12"/>
+      <c r="L58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S58" t="s">
+      <c r="S58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" t="s">
+    <row r="59" spans="1:20">
+      <c r="A59" s="16"/>
+      <c r="B59" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="12">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="12">
         <v>0.6</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="12">
         <v>0.70588235294117641</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H59">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I59">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J59">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="H59" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="12">
         <v>0.8571428571428571</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="12">
         <v>0.6</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="12">
         <v>0.70588235294117641</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S59">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T59">
+      <c r="S59" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T59" s="13">
         <v>0.61538461538461531</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
+    <row r="60" spans="1:20">
+      <c r="A60" s="16"/>
+      <c r="B60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="12">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12">
         <v>0.7142857142857143</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="12">
         <v>0.875</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="12">
         <v>0.7</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="12">
         <v>0.77777777777777768</v>
       </c>
-      <c r="L60" t="s">
+      <c r="K60" s="12"/>
+      <c r="L60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M60">
-        <v>0.5</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="M60" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="12">
+        <v>1</v>
+      </c>
+      <c r="O60" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="12">
         <v>0.875</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="12">
         <v>0.7</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="13">
         <v>0.77777777777777768</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" t="s">
+    <row r="61" spans="1:20">
+      <c r="A61" s="16"/>
+      <c r="B61" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E61">
-        <v>0.5</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="E61" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="12">
         <v>0.8</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="12">
         <v>0.8</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="12">
         <v>0.80000000000000016</v>
       </c>
-      <c r="L61" t="s">
+      <c r="K61" s="12"/>
+      <c r="L61" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="12">
         <v>0.75</v>
       </c>
-      <c r="N61">
-        <v>0.5</v>
-      </c>
-      <c r="O61">
+      <c r="N61" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O61" s="12">
         <v>0.6</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" t="s">
+      <c r="R61" s="12">
+        <v>1</v>
+      </c>
+      <c r="S61" s="12">
+        <v>1</v>
+      </c>
+      <c r="T61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="16"/>
+      <c r="B62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="12">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="12">
         <v>0.8</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="12">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62" s="12">
         <v>0.4</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="12">
         <v>0.75</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="12">
         <v>0.6</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="13">
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" t="s">
+    <row r="63" spans="1:20">
+      <c r="A63" s="16"/>
+      <c r="B63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="12">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.4</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
+      <c r="I63" s="12">
         <v>0.4</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="L63" t="s">
+      <c r="K63" s="12"/>
+      <c r="L63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="12">
         <v>0.8</v>
       </c>
-      <c r="O63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="O63" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S63">
+      <c r="R63" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S63" s="12">
         <v>0.4</v>
       </c>
-      <c r="T63">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" t="s">
+      <c r="T63" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="16"/>
+      <c r="B64" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="C64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H64">
-        <v>0.5</v>
-      </c>
-      <c r="I64">
+      <c r="H64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="12">
         <v>0.4</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="12">
         <v>0.44444444444444448</v>
       </c>
-      <c r="L64" t="s">
+      <c r="K64" s="12"/>
+      <c r="L64" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O64">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="M64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O64" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-      <c r="S64">
-        <v>0.5</v>
-      </c>
-      <c r="T64">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" t="s">
+      <c r="R64" s="12">
+        <v>1</v>
+      </c>
+      <c r="S64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T64" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="16"/>
+      <c r="B65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="12">
         <v>0.6</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0.5</v>
-      </c>
-      <c r="J65">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="H65" s="12">
+        <v>1</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="M65" s="12">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12">
+        <v>0</v>
+      </c>
+      <c r="O65" s="12">
+        <v>0</v>
+      </c>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="12">
         <v>0.75</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="12">
         <v>0.6</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="13">
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" t="s">
+    <row r="66" spans="1:20">
+      <c r="A66" s="16"/>
+      <c r="B66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="12">
         <v>0.6</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
+      <c r="I66" s="12">
+        <v>1</v>
+      </c>
+      <c r="J66" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="L66" t="s">
+      <c r="K66" s="12"/>
+      <c r="L66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M66">
-        <v>0.5</v>
-      </c>
-      <c r="N66">
+      <c r="M66" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="12">
         <v>0.4</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" t="s">
+      <c r="R66" s="12">
+        <v>0</v>
+      </c>
+      <c r="S66" s="12">
+        <v>0</v>
+      </c>
+      <c r="T66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="16"/>
+      <c r="B67" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="M67" s="12">
+        <v>0</v>
+      </c>
+      <c r="N67" s="12">
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <v>0</v>
+      </c>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="12">
         <v>0.6</v>
       </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
+      <c r="S67" s="12">
+        <v>1</v>
+      </c>
+      <c r="T67" s="13">
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" t="s">
+    <row r="68" spans="1:20">
+      <c r="A68" s="16"/>
+      <c r="B68" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0.5</v>
-      </c>
-      <c r="E68">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="12">
         <v>0.25</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
+      <c r="I68" s="12">
+        <v>1</v>
+      </c>
+      <c r="J68" s="12">
         <v>0.4</v>
       </c>
-      <c r="L68" t="s">
+      <c r="K68" s="12"/>
+      <c r="L68" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>0.5</v>
-      </c>
-      <c r="O68">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q68" t="s">
+      <c r="M68" s="12">
+        <v>1</v>
+      </c>
+      <c r="N68" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O68" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="9" t="s">
+      <c r="R68" s="12">
+        <v>0</v>
+      </c>
+      <c r="S68" s="12">
+        <v>0</v>
+      </c>
+      <c r="T68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="26">
+      <c r="A69" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="14">
         <v>0.61238095238095236</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="14">
         <v>0.53</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="19">
         <v>0.51463585434173675</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="14">
         <v>0.66916666666666669</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="14">
         <v>0.64666666666666672</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="19">
         <v>0.60769841269841274</v>
       </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="14"/>
+      <c r="L69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="14">
         <v>0.58452380952380956</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="14">
         <v>0.48</v>
       </c>
-      <c r="O69" s="9">
+      <c r="O69" s="19">
         <v>0.49439775910364148</v>
       </c>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9" t="s">
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R69" s="9">
+      <c r="R69" s="14">
         <v>0.62130952380952364</v>
       </c>
-      <c r="S69" s="9">
+      <c r="S69" s="14">
         <v>0.54666666666666663</v>
       </c>
-      <c r="T69" s="9">
+      <c r="T69" s="20">
         <v>0.56431623931623931</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-    </row>
-    <row r="74" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+    <row r="70" spans="1:20" ht="16" thickBot="1">
+      <c r="A70" s="28"/>
+      <c r="B70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="23"/>
+      <c r="T70" s="24"/>
+    </row>
+    <row r="71" spans="1:20" ht="16" thickTop="1">
+      <c r="A71" s="16"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="13"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="16"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="13"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="16"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="13"/>
+    </row>
+    <row r="74" spans="1:20" ht="16" thickBot="1">
+      <c r="A74" s="16"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="13"/>
+    </row>
+    <row r="75" spans="1:20" ht="16" thickTop="1">
+      <c r="A75" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+      <c r="B75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" s="10"/>
+      <c r="T75" s="11"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L76" t="s">
+      <c r="K76" s="12"/>
+      <c r="L76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S76" t="s">
+      <c r="S76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T76" t="s">
+      <c r="T76" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" t="s">
+    <row r="77" spans="1:20">
+      <c r="A77" s="16"/>
+      <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C77">
-        <v>0.5</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="C77" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="H77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="M77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S77">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T77">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" t="s">
+      <c r="R77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S77" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T77" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="16"/>
+      <c r="B78" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="12">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="12">
         <v>0.6</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="12">
         <v>0.70588235294117641</v>
       </c>
-      <c r="G78" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="12">
         <v>0.875</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="12">
         <v>0.7</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="12">
         <v>0.77777777777777768</v>
       </c>
-      <c r="L78" t="s">
+      <c r="K78" s="12"/>
+      <c r="L78" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
+      <c r="M78" s="12">
+        <v>1</v>
+      </c>
+      <c r="N78" s="12">
         <v>0.6</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="12">
         <v>0.875</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="12">
         <v>0.7</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="13">
         <v>0.77777777777777768</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" t="s">
+    <row r="79" spans="1:20">
+      <c r="A79" s="16"/>
+      <c r="B79" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E79">
+      <c r="C79" s="12">
+        <v>1</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E79" s="12">
         <v>0.8</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="12">
         <v>0.8</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="12">
         <v>0.8</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="12">
         <v>0.80000000000000016</v>
       </c>
-      <c r="L79" t="s">
+      <c r="K79" s="12"/>
+      <c r="L79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="s">
+      <c r="M79" s="12">
+        <v>1</v>
+      </c>
+      <c r="N79" s="12">
+        <v>1</v>
+      </c>
+      <c r="O79" s="12">
+        <v>1</v>
+      </c>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
+      <c r="R79" s="12">
+        <v>1</v>
+      </c>
+      <c r="S79" s="12">
+        <v>1</v>
+      </c>
+      <c r="T79" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="16"/>
+      <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="12">
         <v>0.375</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="12">
         <v>0.6</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="12">
         <v>0.46153846153846151</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="H80" s="12">
+        <v>1</v>
+      </c>
+      <c r="I80" s="12">
+        <v>1</v>
+      </c>
+      <c r="J80" s="12">
+        <v>1</v>
+      </c>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="12">
         <v>0.8</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="12">
         <v>0.8</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="12">
         <v>0.80000000000000016</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="12">
         <v>0.8</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="12">
         <v>0.8</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="13">
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" t="s">
+    <row r="81" spans="1:22">
+      <c r="A81" s="16"/>
+      <c r="B81" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="C81" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H81">
-        <v>0.5</v>
-      </c>
-      <c r="I81">
+      <c r="H81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="12">
         <v>0.4</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="12">
         <v>0.44444444444444448</v>
       </c>
-      <c r="L81" t="s">
+      <c r="K81" s="12"/>
+      <c r="L81" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N81">
+      <c r="M81" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N81" s="12">
         <v>0.4</v>
       </c>
-      <c r="O81">
-        <v>0.5</v>
-      </c>
-      <c r="Q81" t="s">
+      <c r="O81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R81">
-        <v>0.5</v>
-      </c>
-      <c r="S81">
+      <c r="R81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S81" s="12">
         <v>0.4</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="13">
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" t="s">
+    <row r="82" spans="1:22">
+      <c r="A82" s="16"/>
+      <c r="B82" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="C82" s="12">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
+      <c r="H82" s="12">
+        <v>1</v>
+      </c>
+      <c r="I82" s="12">
         <v>0.4</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="L82" t="s">
+      <c r="K82" s="12"/>
+      <c r="L82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M82">
-        <v>0.5</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q82" t="s">
+      <c r="M82" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N82" s="12">
+        <v>1</v>
+      </c>
+      <c r="O82" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-      <c r="S82">
+      <c r="R82" s="12">
+        <v>1</v>
+      </c>
+      <c r="S82" s="12">
         <v>0.4</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="13">
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" t="s">
+    <row r="83" spans="1:22">
+      <c r="A83" s="16"/>
+      <c r="B83" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="12">
         <v>0.2</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="12">
         <v>0.33333333333333343</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="12">
         <v>0.6</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="12">
+        <v>1</v>
+      </c>
+      <c r="J83" s="12">
         <v>0.74999999999999989</v>
       </c>
-      <c r="L83" t="s">
+      <c r="K83" s="12"/>
+      <c r="L83" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
+      <c r="M83" s="12">
+        <v>1</v>
+      </c>
+      <c r="N83" s="12">
         <v>0.4</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="12">
         <v>0.57142857142857151</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>0.5</v>
-      </c>
-      <c r="T83">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" t="s">
+      <c r="R83" s="12">
+        <v>1</v>
+      </c>
+      <c r="S83" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T83" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="16"/>
+      <c r="B84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C84">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D84">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E84">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="C84" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0.5</v>
-      </c>
-      <c r="J84">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="H84" s="12">
+        <v>1</v>
+      </c>
+      <c r="I84" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J84" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M84">
-        <v>0.5</v>
-      </c>
-      <c r="N84">
-        <v>0.5</v>
-      </c>
-      <c r="O84">
-        <v>0.5</v>
-      </c>
-      <c r="Q84" t="s">
+      <c r="M84" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N84" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O84" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="12">
         <v>0.6</v>
       </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84">
+      <c r="S84" s="12">
+        <v>1</v>
+      </c>
+      <c r="T84" s="13">
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" t="s">
+    <row r="85" spans="1:22">
+      <c r="A85" s="16"/>
+      <c r="B85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="C85" s="12">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>0.5</v>
-      </c>
-      <c r="O85">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q85" t="s">
+      <c r="M85" s="12">
+        <v>1</v>
+      </c>
+      <c r="N85" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O85" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" t="s">
+      <c r="R85" s="12">
+        <v>0</v>
+      </c>
+      <c r="S85" s="12">
+        <v>0</v>
+      </c>
+      <c r="T85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="16"/>
+      <c r="B86" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C86">
-        <v>0.5</v>
-      </c>
-      <c r="D86">
-        <v>0.5</v>
-      </c>
-      <c r="E86">
-        <v>0.5</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="C86" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="12">
         <v>0.25</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
+      <c r="I86" s="12">
+        <v>1</v>
+      </c>
+      <c r="J86" s="12">
         <v>0.4</v>
       </c>
-      <c r="L86" t="s">
+      <c r="K86" s="12"/>
+      <c r="L86" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="12">
         <v>0.25</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
+      <c r="N86" s="12">
+        <v>1</v>
+      </c>
+      <c r="O86" s="12">
         <v>0.4</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="12">
         <v>0.25</v>
       </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="T86">
+      <c r="S86" s="12">
+        <v>1</v>
+      </c>
+      <c r="T86" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:22" ht="26">
+      <c r="A87" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="14">
         <v>0.55654761904761907</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="14">
         <v>0.49</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="17">
         <v>0.48007541478129723</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
+      <c r="F87" s="14"/>
+      <c r="G87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="14">
         <v>0.66916666666666669</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="14">
         <v>0.64666666666666672</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="21">
         <v>0.60769841269841274</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M87" s="22">
         <v>0.7383333333333334</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N87" s="22">
         <v>0.68666666666666676</v>
       </c>
-      <c r="O87" s="10">
+      <c r="O87" s="19">
         <v>0.65214285714285725</v>
       </c>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9" t="s">
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R87" s="10">
+      <c r="R87" s="22">
         <v>0.66916666666666669</v>
       </c>
-      <c r="S87" s="10">
+      <c r="S87" s="22">
         <v>0.64666666666666672</v>
       </c>
-      <c r="T87" s="10">
+      <c r="T87" s="20">
         <v>0.60769841269841274</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>0</v>
-      </c>
-      <c r="L88" t="s">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-    </row>
-    <row r="92" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="16"/>
+      <c r="B88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" s="12"/>
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="16"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="16"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="13"/>
+    </row>
+    <row r="91" spans="1:22" ht="16" thickBot="1">
+      <c r="A91" s="28"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="24"/>
+    </row>
+    <row r="92" spans="1:22" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/result_precision_recall.xlsx
+++ b/result_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036B487-CAC9-E74E-9D04-8C39919B9123}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7567D423-CF8C-DD40-952E-D63F790C13E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,8 +884,8 @@
   <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
